--- a/all_products.xlsx
+++ b/all_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evangelista\Documents\lazada_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9E2F3-6EEE-4E93-85E5-8B4981E0BB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358C4D0-F488-4004-BE57-B8361B2F74AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19007B06-DD67-4ECC-8E59-A85F65E95156}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="738">
   <si>
     <t>title</t>
   </si>
@@ -197,9 +197,6 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fsimple-fashion-mens-casual-t-shirt-short-sleeve-round-neck-top-i277986487-s847938749.html</t>
   </si>
   <si>
-    <t>1177 Ratings</t>
-  </si>
-  <si>
     <t>https://ph-test-11.slatic.net/p/546186887372732b358521e3e370505f.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fagricultural-garden-pressure-sprayer-5l-i135529699-s152245245.html</t>
   </si>
   <si>
-    <t>30 Ratings</t>
-  </si>
-  <si>
     <t>https://ph-test-11.slatic.net/p/3/agricultural-garden-pressure-sprayer-5l-1096-83825315-c230cdbf388b315bc12a6a83bcd14789-catalog.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -296,6 +290,9 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fmk-motorworld-univesal-motorcycle-cross-bar-black-i426642455-s1437738312.html</t>
   </si>
   <si>
+    <t>194 Ratings</t>
+  </si>
+  <si>
     <t>https://ph-test-11.slatic.net/p/f73c959b156f84b8269cb0dd9e5bb495.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2F3080-side-mirror-small-motorcycle-1-pair-moon-rising-i436568398-s1087720315.html</t>
   </si>
   <si>
+    <t>60 Ratings</t>
+  </si>
+  <si>
     <t>https://ph-test-11.slatic.net/p/d849cb28ace2c7b1785d5e0df842618e.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -404,15 +404,9 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2F100-genuinenew-skmei-mens-sports-watch-chronograph-alarm-clock-digital-watch-50m-waterproof-dual-time-countdown-stopwatch-1251-i281340649-s430334831.html</t>
   </si>
   <si>
-    <t>303 Ratings</t>
-  </si>
-  <si>
     <t>https://ph-test-11.slatic.net/p/f2cbaca36d257383631a1999bd20e8b6.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
-    <t>sports</t>
-  </si>
-  <si>
     <t>https://www.lazada.com.ph/products/100-genuinenew-skmei-mens-sports-watch-chronograph-alarm-clock-digital-watch-50m-waterproof-dual-time-countdown-stopwatch-1251-i281340649-s430334831.html?spm=a2o4l.searchlist.list.35.502a7525W8ntiB&amp;search=1</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i469318821-s1220134859.html</t>
   </si>
   <si>
-    <t>191 Ratings</t>
-  </si>
-  <si>
     <t>https://ph-test-11.slatic.net/p/05ab4a8c5c221aa716ff988b52c5f527.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -704,9 +695,6 @@
     <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i232116152-s312992429.html</t>
   </si>
   <si>
-    <t>246 Ratings</t>
-  </si>
-  <si>
     <t>https://ph-test-11.slatic.net/original/9cd6e0dd857ece30b6ca50809bc17c36.jpg_720x720q80.jpg_.webp</t>
   </si>
   <si>
@@ -716,45 +704,12 @@
     <t>https://www.lazada.com.ph/-i232116152-s312992429.html?spm=a2o4l.my_wishlist.price_observing.15.222b3e17j3ZUEj&amp;urlFlag=true&amp;mp=3</t>
   </si>
   <si>
-    <t>3009 Ratings</t>
-  </si>
-  <si>
-    <t>376 Ratings</t>
-  </si>
-  <si>
-    <t>3691 Ratings</t>
-  </si>
-  <si>
-    <t>20415 Ratings</t>
-  </si>
-  <si>
-    <t>3170 Ratings</t>
-  </si>
-  <si>
     <t>31 Ratings</t>
   </si>
   <si>
-    <t>62 Ratings</t>
-  </si>
-  <si>
-    <t>690 Ratings</t>
-  </si>
-  <si>
-    <t>519 Ratings</t>
-  </si>
-  <si>
-    <t>195 Ratings</t>
-  </si>
-  <si>
     <t>305 Ratings</t>
   </si>
   <si>
-    <t>788 Ratings</t>
-  </si>
-  <si>
-    <t>109 Ratings</t>
-  </si>
-  <si>
     <t>56 Ratings</t>
   </si>
   <si>
@@ -783,14 +738,1524 @@
   </si>
   <si>
     <t>❤️ Dream Best Foldable Bluetooth Keyboard,Portable Folding Wireless Keyboard with Stand,Rollable Bluetooth Keyboard Ultra-Slim for IPad, IPhone, Tablets, Android Smartphones, IOS</t>
+  </si>
+  <si>
+    <t>3015 Ratings</t>
+  </si>
+  <si>
+    <t>377 Ratings</t>
+  </si>
+  <si>
+    <t>3695 Ratings</t>
+  </si>
+  <si>
+    <t>20432 Ratings</t>
+  </si>
+  <si>
+    <t>3180 Ratings</t>
+  </si>
+  <si>
+    <t>1181 Ratings</t>
+  </si>
+  <si>
+    <t>693 Ratings</t>
+  </si>
+  <si>
+    <t>521 Ratings</t>
+  </si>
+  <si>
+    <t>197 Ratings</t>
+  </si>
+  <si>
+    <t>308 Ratings</t>
+  </si>
+  <si>
+    <t>sports,watches</t>
+  </si>
+  <si>
+    <t>790 Ratings</t>
+  </si>
+  <si>
+    <t>112 Ratings</t>
+  </si>
+  <si>
+    <t>technologies,electronics</t>
+  </si>
+  <si>
+    <t>247 Ratings</t>
+  </si>
+  <si>
+    <t>3D Cute Cat T-shirts Women Summer Tops Tees Print Animal T shirt Men o-neck short sleeve Fashion Tshirts Plus Size</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i428600309-s1063056983.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/original/c64389e26c8e5e5a9a32219966105d88.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>clothes,pets,fashion for men</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i428600309-s1063056983.html?spm=a2o4l.my_wishlist.price_observing.2.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>ABS_ABSL 319 Victoria's secret pink Fashion Travel Bag With shoebag Sequins Large Capacity Shoe Bag Tote Bag Shoulder Bag Fitness Bag Sports Bag</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i169958438-s211159537.html</t>
+  </si>
+  <si>
+    <t>231 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/8/victoria-secret-love-pink-travel-bag-5206-91256039-c29130b7d8df8cfcd9fedaee65969026-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,sports,outdoor,health and fitness</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i169958438-s211159537.html?spm=a2o4l.my_wishlist.price_observing.5.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Instagram Creative Stationery Kids Cute Cartoon Pencil Bags Shining New Smiggle Students Large Capacity Waterproof Pencil Case</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i471922530-s1229466642.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/a2f87e99a93d0121afb3a8a1fa79bced.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>kids,toys</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i471922530-s1229466642.html?spm=a2o4l.my_wishlist.price_observing.8.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>50pcs SMD 1W LED Beads Bulb Chip For Floodlight/Spotlight Energy-saving (Cool White) - intl</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i160636546-s196084233.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/3/50pcs-smd-1w-led-beads-bulb-chip-for-floodlightspotlight-energy-saving-cool-white-intl-4903-66689528-6720c4d5beba74c80227b9215a7ba3b9-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i160636546-s196084233.html?spm=a2o4l.my_wishlist.price_observing.12.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Cationic Gadget Organizer</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i317824339-s655740119.html</t>
+  </si>
+  <si>
+    <t>1329 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/5c9ff9cb2f92ed0273a25b98ef5e57cd.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i317824339-s655740119.html?spm=a2o4l.my_wishlist.price_observing.14.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Yfashion 3D Short Sleeves Shirt Round Neck Geometric Quadrilateral Digital Printing T-shirt</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i296032744-s496354741.html</t>
+  </si>
+  <si>
+    <t>15 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/540b29d90e3a59c9955edf71fba20a71.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i296032744-s496354741.html?spm=a2o4l.my_wishlist.price_observing.17.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Yfashion Cat in Pocket Shirt Men Funny Graphics Short Sleeve T-shirt S-3XL</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i312294142-s628664058.html</t>
+  </si>
+  <si>
+    <t>https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png</t>
+  </si>
+  <si>
+    <t>2 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/fd206ec7bfa8b8e1c9dfe4370525e463.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i312294142-s628664058.html?spm=a2o4l.my_wishlist.price_observing.18.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Ring Buckle Adapter 3.5mm Jack Creative Ring Buckle Charging Headset Voice Call Line Control Four in One Audio Line iPhone Ring Buckle Adapter</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i324932391-s679266356.html</t>
+  </si>
+  <si>
+    <t>https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1yQX4Ah9YBuNjy0FfXXXIsVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png</t>
+  </si>
+  <si>
+    <t>8 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/56a5b25e2541dd479a06ded5ce9ed7e8.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>gadget,gaming</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i324932391-s679266356.html?spm=a2o4l.my_wishlist.price_observing.32.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>40x60 Military Handheld HD Monocular Telescope for Traveling &amp; Hunting &amp; Camping &amp; Hiking. (1500M-9500M)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i278524529-s418760600.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/0bd44ca649afac767e95af7ca56ef405.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>gadget,technologies,cameras</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i278524529-s418760600.html?spm=a2o4l.my_wishlist.price_observing.42.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>PB-2601 26CM LED Ring Light 24W Photo Studio Light Photography Dimmable Video For smartphone With Tripod stand Selfie Stick &amp; Phone Holder</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i327180520-s694848492.html</t>
+  </si>
+  <si>
+    <t>1438 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/7a20a4dec42e4fcbac16030b737deeef.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>cameras</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i327180520-s694848492.html?spm=a2o4l.my_wishlist.price_observing.41.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>SMIGGLE SCENTED PENCIL PACK X 4</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i288522539-s758890311.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/aa645595e920d0221c21812e823239cb.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>toys,kids</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i288522539-s758890311.html?spm=a2o4l.my_wishlist.price_observing.46.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>D&amp;D 3in1 Portable &amp; Outdoor 20L Waterproof Dry Bag Set with Water Proof Phone Case and Waist Bag</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i160090479-s194979814.html</t>
+  </si>
+  <si>
+    <t>86 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/6/dampd-3in1-portable-amp-outdoor-20l-waterproof-dry-bag-set-with-water-proof-phone-case-and-waist-bag-9719-45266818-cff9e79e33369754d339fdaf8c1be3c3-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,outdoor,health and fitness</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i160090479-s194979814.html?spm=a2o4l.my_wishlist.price_observing.59.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Rii RT-MWK01(X1) Mini 2.4GHz Wireless Keyboard w/ Mouse &amp; Touchpad - Black</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i244623778-s333474101.html</t>
+  </si>
+  <si>
+    <t>19 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/original/70763625959c194855c4889982166cfc.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>gadget,computer</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i244623778-s333474101.html?spm=a2o4l.my_wishlist.price_observing.118.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Anytek P4 Portable USB Charging Security Smart Fingerprint Lock</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i287398413-s458336977.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/e6da72e9f366b4e455a2eac8d2a72bc6.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i287398413-s458336977.html?spm=a2o4l.my_wishlist.price_observing.115.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Outdoor solar charger Foldable 20W USB Solar Panels Portable Folding Waterproof Solar Panel Charger for Phone Battery Charger</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i388180872-s888882632.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/2b65cec4f10e493c6cb30f419e1ff962.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>green technology,outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i388180872-s888882632.html?spm=a2o4l.my_wishlist.price_observing.132.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Outdoor Camping Cookware Cookset 11pcs Set 2-3person #0031 D300 (Gray)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i419192302-s1029514299.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/3dd6da416e73ef87baa8d3b82ca96b3a.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,kitchen,home and living</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i419192302-s1029514299.html?spm=a2o4l.my_wishlist.price_observing.136.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Tigronyx Fire Extinguisher 5 lbs ABC Dry Chemical</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i267915365-s380178799.html</t>
+  </si>
+  <si>
+    <t>46 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/c07ce2a0d902816a1b6c0e3458413ba9.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i267915365-s380178799.html?spm=a2o4l.my_wishlist.price_observing.138.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Outdoor Hiking Shoes Men Hiking Shoes For Men Sandals Men Leather Sandals For Men Shoes Waterproof Summer Shoes Mens Walking Trekking Shoes Beach</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i427308027-s1059530779.html</t>
+  </si>
+  <si>
+    <t>28 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/c70f2e2453e0c6b1c6b8ba357381e457.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>footware,fashion for men,fashion for women</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i427308027-s1059530779.html?spm=a2o4l.my_wishlist.price_observing.143.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Crazyfly Anti-Dredging Rescue Bracelet With Inflatable Airbag Outdoor Watersports Swim With Life Strap</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i293602149-s482784833.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/3f276b55438a9b9a6ed6d513188fb9e4.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,safety,sports</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i293602149-s482784833.html?spm=a2o4l.my_wishlist.price_observing.146.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Naturehike Swimming Waterproof Bag Portable Camping Backpack Sport PVC Dry Bag Water Proof Pouch NH19SB002</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i374996751-s850606121.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/b2eed7150834adcc437e573447e97e8c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i374996751-s850606121.html?spm=a2o4l.my_wishlist.price_observing.153.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>New Diving Mask Scuba Mask Underwater Anti Fog Full Face Snorkeling Mask Women Men Kids Swimming Snorkel Diving Equipment</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i506458145-s1350512273.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/3c6f9385a62959096c905603d0bd8f3b.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,sports</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i506458145-s1350512273.html?spm=a2o4l.my_wishlist.price_observing.155.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Removable And Washable Cat Tunnel, Pet Cat Bed, Cat Play Channel, And Cats Running Through The Runway</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i504568968-s1345840850.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/7d7bdc70f481a86eab408ea32170414c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i504568968-s1345840850.html?spm=a2o4l.my_wishlist.price_observing.170.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>LOSELF - ROWE USB Waterproof Oxford 15.6 Inch Laptop Backpack Multifunctional Business Backpack Casual Travel Bag Fashion School Bag for men</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i476184383-s1242998180.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/eb413f4dcf947d34607ec1efbb2df0af.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i476184383-s1242998180.html?spm=a2o4l.my_wishlist.price_observing.187.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Mini High Precision Home DIY Desktop FDM 3D Printer Complete Machine with Low Energy Consumption Easy to Use UK Plug</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i273763686-s401242849.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/892eac9a5f41a02645e3132147ba8acb.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>electronics,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i273763686-s401242849.html?spm=a2o4l.my_wishlist.price_observing.229.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>BioLite Campstove - intl</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i158884223-s193228804.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/6/biolite-campstove-intl-9730-96835508-c0e7036465c21986703a8b62f8cfc0e3-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i158884223-s193228804.html?spm=a2o4l.my_wishlist.price_observing.239.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>5.7" Selfie Ring Light with Tripod Stand &amp; Cell Phone Holder for Makeup, Mini Led Camera Ringlight for Video/Photography</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i357584133-s808968916.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/22ddd5029860500b5d7680be50afc3e5.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>cameras,gadget</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i357584133-s808968916.html?spm=a2o4l.my_wishlist.price_observing.268.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>100% Original Nike_Jordan 34 Blue Void AJ34 First Black Gray Ice Blue Electro-optic Purple AJ 34 Men's Basketball Shoes BQ3381-400</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i534186426-s1435108003.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/965cefed5b12a81d53c2688c670b4ac2.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i534186426-s1435108003.html?spm=a2o4l.my_wishlist.price_observing.276.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>UGREEN 6.5 inch Waterproof Phone Case,Support Touch ID,Universal Durable Underwater Dry Bag for Smartphone iPhone 11 iPhone 11 Pro,Xiaomi Redmi Note 7,OPPO Realme 5 ,Vivo, Samsung, Huawei, OnePlus, LG, etc</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i433652079-s1078110909.html</t>
+  </si>
+  <si>
+    <t>38 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/7a6b168512725259e31beede0f598200.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,gadget,outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i433652079-s1078110909.html?spm=a2o4l.my_wishlist.price_observing.264.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>P&amp;M Fashion Men's 3D Printing Round Neck Short Sleeve Shirt Top Blouse</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i380456597-s866900984.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/8f893de3c57b8a2ebc9da86c9f45bb85.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i380456597-s866900984.html?spm=a2o4l.my_wishlist.price_observing.258.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Suaoki 60W Solar Panel Charger 18V DC</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i361450701-s818430215.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/3135b65fb8176557fd9f5cc764f0a5e7.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>green technology,electronics,gadget</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i361450701-s818430215.html?spm=a2o4l.my_wishlist.price_observing.214.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Cyclone Fire Extinguisher 10lbs ABC Dry Chemical (Red) bundle of 3pcs</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i134245952-s149589834.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/3/cyclone-fire-extinguisher-10lbs-abc-dry-chemical-red-bundle-of-3pcs-2021-20090484-7a9ddb04aa595d207e6c5213b979477a-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>safety,school and office,home and living</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i134245952-s149589834.html?spm=a2o4l.my_wishlist.price_observing.216.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Adidas_Originals_Prophere cute pink shoes Running_shoes parent-child</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i414960955-s1013208741.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/5f02b8a17bbedec052c7672627c809be.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>footware,fashion for women</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i414960955-s1013208741.html?spm=a2o4l.my_wishlist.price_observing.180.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>PUMA_MERCEDES_AMG X drift limited edition sports running shoes 1 Men Women Leather surface Sports Car Casual Running Sports Shoes Sneakers</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i423550882-s1048186061.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/08df84a8d72711835de5eac2d1326696.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i423550882-s1048186061.html?spm=a2o4l.my_wishlist.price_observing.184.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>ARCTIC HUNTER Disassembled 17-Inch Laptop Backpack Multifunction Business Backpack Men Large Capacity Travel Backpack Fashion School Bag for College Students Men</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i344760232-s779154722.html</t>
+  </si>
+  <si>
+    <t>3 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/18ab61b461cf72b31c50a794db29369b.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i344760232-s779154722.html?spm=a2o4l.my_wishlist.price_observing.188.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Sarki 30L Waterproof Backpack Dry Bag with Zipper Pocket and Padded Shoulder Straps Large Dry Sack for Kayaking,Beach,Water Sports,Boating - intl</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i158191479-s192103656.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/f88b8b10d4481265767ad273756ebc1d.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,bags</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i158191479-s192103656.html?spm=a2o4l.my_wishlist.price_observing.129.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Suaoki solar panel foldable LED lantern (Orange)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i4665480-s5852527.html</t>
+  </si>
+  <si>
+    <t>5 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/6/suaoki-solar-panel-foldable-led-lantern-orange-7559-6227384-4781add98fdcc9463dfb49f5c2461a51-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>green technology,gadget,outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i4665480-s5852527.html?spm=a2o4l.my_wishlist.price_observing.112.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>A7 sports camera water proof waterproof action camera cam</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i280000918-s424594629.html</t>
+  </si>
+  <si>
+    <t>618 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/3eb41e97828d6ddc2480eca285630b06.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>cars,motorcycles,cameras,outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i280000918-s424594629.html?spm=a2o4l.my_wishlist.price_observing.29.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Running Pouch Belt, Runner Waist Pack for Men and Women (black, one size, 2 pockets)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i278262512-s417786743.html</t>
+  </si>
+  <si>
+    <t>384 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/5a50fd30f995f5700d223068280f658c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,health and fitness,sports</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i278262512-s417786743.html?spm=a2o4l.my_wishlist.price_observing.35.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Yfashion 3D Angel Shirt Men Women Casual Short Sleeve T-shirt S-3XL</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i307230423-s585888838.html</t>
+  </si>
+  <si>
+    <t>https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB14SXtAXOWBuNjy0FiXXXFxVXa-30-30.png,https://laz-img-cdn.alicdn.com/tfs/TB1Nx3Lz3mTBuNjy1XbXXaMrVXa-30-30.png</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/4608c8e47c085aaa530e783736414e13.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>clothes,fashion for men,fashion for women</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i307230423-s585888838.html?spm=a2o4l.my_wishlist.price_observing.17.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Super High Power 16X52 Portable HD OPTICS BAK4 Night Vision Monocular Telescope - intl</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i137132376-s154668369.html</t>
+  </si>
+  <si>
+    <t>48 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/2/super-high-power-16x52-portable-hd-optics-bak4-night-vision-monocular-telescope-intl-0486-22049035-8627c018869116aac159e4a294817175-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i137132376-s154668369.html?spm=a2o4l.my_wishlist.price_observing.97.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Men Waterproof Waist Chest Fanny Pack Travel Hiking Hip Bum Drop Belt Leg Bag</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i256161482-s352293674.html</t>
+  </si>
+  <si>
+    <t>21 Ratings</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/original/b5ec3918b754f866ff08d9310b7e9a4c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>bags,fashion for men</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i256161482-s352293674.html?spm=a2o4l.my_wishlist.price_observing.121.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>SARKI 25L Camouflage Dry Bag, 100% waterproof dry bag with 2 Pockets, Padded Straps and Reflective Stripe - intl</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i221008865-s629148380.html</t>
+  </si>
+  <si>
+    <t>13 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/7517ed1a1f70685da4b13ec0aa12c0e1.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i221008865-s629148380.html?spm=a2o4l.my_wishlist.price_observing.127.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Tigronyx Fire Extinguisher 10lbs ABC Dry Chemical Refillable</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i259985475-s358471990.html</t>
+  </si>
+  <si>
+    <t>361 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/2ed61a8b1111a71f9f884dae8cba73ba.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i259985475-s358471990.html?spm=a2o4l.my_wishlist.price_observing.138.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Popular Original Adidas_Porsche Typ 64 Porsche S3 Leather Skateboard Shoes Men's Classic Authentic White,/black Size 40-45</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i475584501-s1241234122.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/29043387c9d113d033818e55d81ed757.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i475584501-s1241234122.html?spm=a2o4l.my_wishlist.price_observing.192.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>The Camel Outdoor New Big Space Camping Outing Two Bedroom Tent Ultra-large Hight Quality Waterproof Camping Tent Free Shipping</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i567248763-s1542470372.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/e6ca0d389498b98da96068ec6f6da9c0.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i567248763-s1542470372.html?spm=a2o4l.my_wishlist.price_observing.219.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Oneline IX Fitness Sport Small Gym Bag with Shoes Compartment Waterproof Travel Duffel Bag for Women and Men</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i228844490-s304946752.html</t>
+  </si>
+  <si>
+    <t>54 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/d6e804a7791cf550035225a5ffee039e.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,bags,health and fitness</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i228844490-s304946752.html?spm=a2o4l.my_wishlist.price_observing.109.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Mark Ryden 2019 New Anti-thief Fashion Men Backpack Multifunctional Waterproof 17.3 inch Laptop Bag Man USB Charging Travel Bag</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i307662331-s589596587.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/d7ed3af62ef4c2901bb486f0c9e6fc93.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i307662331-s589596587.html?spm=a2o4l.my_wishlist.price_observing.201.61d33e17yEKd5a&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>26CM LED self-timer video ring light 24W dimmable 2700-5500K color temperature band smart phone bracket(No Included Tripod)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i358132290-s810402178.html</t>
+  </si>
+  <si>
+    <t>1290 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/a1004806a176dce06944380e710f7ef1.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i358132290-s810402178.html?spm=a2o4l.my_wishlist.price_observing.110.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Wilk Portable Creative folding LED Reading Book Light With Detachable Flexible Clip USB Rechargeable Lamp For eBook Readers</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fwilk-portable-creative-folding-led-reading-book-light-with-detachable-flexible-clip-usb-rechargeable-lamp-for-ebook-readers-i363152875-s821754765.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/299a406d97c422b401f2014be304729a.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>ebooks,gadget</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/wilk-portable-creative-folding-led-reading-book-light-with-detachable-flexible-clip-usb-rechargeable-lamp-for-ebook-readers-i363152875-s821754765.html?spm=a2o4l.searchlist.list.45.18d76bbacYuhKA&amp;search=1</t>
+  </si>
+  <si>
+    <t>Travel Electronic Accessories Cable Organizer Bag Oxford Cloth Portable Case U Disk Drives Wires Earphones Storage Box 11</t>
+  </si>
+  <si>
+    <t>19CM</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i460786284-s1192172849.html</t>
+  </si>
+  <si>
+    <t>202 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/9e03b5661695c1349a92295a608c6acd.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i460786284-s1192172849.html?spm=a2o4l.my_wishlist.price_observing.107.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Makita Electric impact Drill Tool Set</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i253151298-s347414614.html</t>
+  </si>
+  <si>
+    <t>461 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/bc30f8e9d5fd9a1cf8c2994b49af8aad.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i253151298-s347414614.html?spm=a2o4l.my_wishlist.price_observing.62.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>AdoreFit Sports Gym Bags Men Women Training Fitness Travel Handbag Yoga Mat Sport Bag with shoes Compartment</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i342228839-s770692556.html</t>
+  </si>
+  <si>
+    <t>293 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/f0fc4f260023bea5a803382003962c34.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i342228839-s770692556.html?spm=a2o4l.my_wishlist.price_observing.34.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>off white cat Print t shirt Women tshirt Casual Funny t shirt For Lady Girl Top Tee Hipster harajuku Drop Ship plus size M-5XL</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i295770382-s494314137.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/e2631ea84a7c2bcc51e2f8efcf083d9e.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>clothes,pets,fashion for men,fashion for women</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i295770382-s494314137.html?spm=a2o4l.my_wishlist.price_observing.37.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Original Adidas_Y3 QASA HIGH Sneakers Men/Women Running_Shoes OEM Ready</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i414990003-s1013128239.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/2bedc815a0ec566b911cf907435263cc.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i414990003-s1013128239.html?spm=a2o4l.my_wishlist.price_observing.78.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Mini High Precision Home DIY Desktop FDM 3D Printer Complete Machine with Low Energy Consumption Easy to Use AU Plug</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2F-i273767477-s401245712.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/2f74230cc963e66a71a275543d70ba1c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/-i273767477-s401245712.html?spm=a2o4l.my_wishlist.price_observing.96.61d33e17CX7utp&amp;urlFlag=true&amp;mp=3</t>
+  </si>
+  <si>
+    <t>Dalkem Ethyl Alcohol 95% Technical Grade 1 liter</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fdalkem-ethyl-alcohol-95-technical-grade-1-liter-i267445729-s378964873.html</t>
+  </si>
+  <si>
+    <t>25 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/f12514e699a0eff28f7d1a9734707f20.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>health and fitness,safety</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/dalkem-ethyl-alcohol-95-technical-grade-1-liter-i267445729-s378964873.html?spm=a2o4l.searchlist.list.19.419938428Gqc06&amp;search=1</t>
+  </si>
+  <si>
+    <t>Surgical Face Mask Washable Surgical Mask 3ply Surgucal Face Mask With Design Face Mask Washable Adult Masks Pm 2.5 Anti Haze Protection For Adult Disposable Surgical Medical</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fsurgical-face-mask-washable-surgical-mask-3ply-surgucal-face-mask-with-design-face-mask-washable-adult-masks-pm-25-anti-haze-protection-for-adult-disposable-surgical-medical-i591276097-s1619856232.html</t>
+  </si>
+  <si>
+    <t>53 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/eee91c679529e75bec4282075c651117.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/surgical-face-mask-washable-surgical-mask-3ply-surgucal-face-mask-with-design-face-mask-washable-adult-masks-pm-25-anti-haze-protection-for-adult-disposable-surgical-medical-i591276097-s1619856232.html?spm=a2o4l.searchlist.list.1.675b593f6PrfbZ&amp;search=1</t>
+  </si>
+  <si>
+    <t>AESOPCOM M200 GAMING Keyboard, LED HD BASS Headset and USB 7 LED Mouse Bundle BLACK</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Faesopcom-m200-gaming-keyboard-led-hd-bass-headset-and-usb-7-led-mouse-bundle-black-i111375189-s113486781.html</t>
+  </si>
+  <si>
+    <t>455 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/2/aesopcom-m200-gaming-keyboard-led-hd-bass-headset-and-usb-7-ledmouse-bundle-black-9058-85669712-d874a729e2f63618fccd12e992178441-catalog.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>computer,technologies,gadget</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/aesopcom-m200-gaming-keyboard-led-hd-bass-headset-and-usb-7-led-mouse-bundle-black-i111375189-s113486781.html?spm=a2o4l.searchlist.list.16.3c09320d30gSfz&amp;search=1</t>
+  </si>
+  <si>
+    <t>Gigaware FOREV FV-Q1 3Color Backlight LED Lightsl Gaming Keyboard</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fgigaware-forev-fv-q1-3color-backlight-led-lightsl-gaming-keyboard-i109419390-s111066479.html</t>
+  </si>
+  <si>
+    <t>338 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/f17dc6a1556aba4cea9d6c9e9fd81fc3.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>computer,gadget,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/gigaware-forev-fv-q1-3color-backlight-led-lightsl-gaming-keyboard-i109419390-s111066479.html?spm=a2o4l.searchlist.list.30.3c09320d30gSfz&amp;search=1</t>
+  </si>
+  <si>
+    <t>PK900 Membrane Gaming Keyboard Aluminum Alloy Panel 104 Keys Backlit Keyboard</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fpk900-membrane-gaming-keyboard-aluminum-alloy-panel-104-keys-backlit-keyboard-i268776318-s382202748.html</t>
+  </si>
+  <si>
+    <t>724 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/ed8e3cf1ce08a1e27b4b98bbdae7f1b5.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>computer,gadget,technologies,gaming</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/pk900-membrane-gaming-keyboard-aluminum-alloy-panel-104-keys-backlit-keyboard-i268776318-s382202748.html?spm=a2o4l.searchlist.list.66.3c09320d30gSfz&amp;search=1</t>
+  </si>
+  <si>
+    <t>PK900 Membrane Gaming Keyboard Aluminum Alloy Panel 104 Keys Backlit Keyboard PK-900 Gaming Keyboard</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fpk900-membrane-gaming-keyboard-aluminum-alloy-panel-104-keys-backlit-keyboard-pk-900-gaming-keyboard-i277234742-s414406374.html</t>
+  </si>
+  <si>
+    <t>218 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/b2635a69cb1a73982190a1a7cd940806.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/pk900-membrane-gaming-keyboard-aluminum-alloy-panel-104-keys-backlit-keyboard-pk-900-gaming-keyboard-i277234742-s414406374.html?spm=a2o4l.searchlist.list.88.3c09320d30gSfz&amp;search=1</t>
+  </si>
+  <si>
+    <t>VEGER VP1027W 10000mAh Wireless Slim Powerbank 5 Watts Type -C/Micro Input Dual USB Output For iPhone Xs Max/Xs/XR/X/8/8plus Samsung Galaxy S6 And Up</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fveger-vp1027w-10000mah-wireless-slim-powerbank-5-watts-type-cmicro-input-dual-usb-output-for-iphone-xs-maxxsxrx88plus-samsung-galaxy-s6-and-up-i317934710-s656220919.html</t>
+  </si>
+  <si>
+    <t>558 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/67a1a23f48bba1e4cbf2c750ddbe709f.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>gadget,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/veger-vp1027w-10000mah-wireless-slim-powerbank-5-watts-type-cmicro-input-dual-usb-output-for-iphone-xs-maxxsxrx88plus-samsung-galaxy-s6-and-up-i317934710-s656220919.html?spm=a2o4l.searchlist.list.1.19596832CETg33&amp;search=1</t>
+  </si>
+  <si>
+    <t>PINENG PN-888PD 10000mAh Wireless &amp; Quick Charge 3.0 Powerbank Support Auto Matching upto 18Watts Charger for Iphone Huawei Xiaomi Oppo Samsung w/ Wireless Charging Feature Carbon Fiber Outer Shell Type-C Vice Versa Power Delivery(PD) with Built-in Cable</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fpineng-pn-888pd-10000mah-wireless-quick-charge-30-powerbank-support-auto-matching-upto-18watts-charger-for-iphone-huawei-xiaomi-oppo-samsung-w-wireless-charging-feature-carbon-fiber-outer-shell-type-c-vice-versa-power-deliverypd-with-built-in-cable-i472314826-s1230836625.html</t>
+  </si>
+  <si>
+    <t>23 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/17155a87c6f03982f54a1b032b27d7f9.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/pineng-pn-888pd-10000mah-wireless-quick-charge-30-powerbank-support-auto-matching-upto-18watts-charger-for-iphone-huawei-xiaomi-oppo-samsung-w-wireless-charging-feature-carbon-fiber-outer-shell-type-c-vice-versa-power-deliverypd-with-built-in-cable-i472314826-s1230836625.html?spm=a2o4l.searchlist.list.59.19596832CETg33&amp;search=1</t>
+  </si>
+  <si>
+    <t>HONOR Band 5 Smart Watch Bracelet Bluetooth 4.2 AMOLED Touch Screen Display Heart Rate Monitor Water Resistant 100mAh Fitness Tracker</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fhonor-band-5-smart-watch-bracelet-bluetooth-42-amoled-touch-screen-display-heart-rate-monitor-water-resistant-100mah-fitness-tracker-i465644015-s1217886283.html</t>
+  </si>
+  <si>
+    <t>504 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/d823801c3fdcbc21deb067f4329f0805.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>watches,gadget,health and fitness</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/honor-band-5-smart-watch-bracelet-bluetooth-42-amoled-touch-screen-display-heart-rate-monitor-water-resistant-100mah-fitness-tracker-i465644015-s1217886283.html?spm=a2o4l.searchlist.list.1.2cc8461ccdA8vq&amp;search=1</t>
+  </si>
+  <si>
+    <t>Blitzwolf BW-BS8 Selfie Stick Extendable Bluetooth Tripod Selfie Stick With LED Fill Light For Phone Sport Camera 3 in 1 Design Multi-angle Rotation Removable and Rechargeable Remoter</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fblitzwolf-bw-bs8-selfie-stick-extendable-bluetooth-tripod-selfie-stick-with-led-fill-light-for-phone-sport-camera-3-in-1-design-multi-angle-rotation-removable-and-rechargeable-remoter-i278610145-s418877547.html</t>
+  </si>
+  <si>
+    <t>114 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/1e39e3027811a98677e8a251aff774ca.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/blitzwolf-bw-bs8-selfie-stick-extendable-bluetooth-tripod-selfie-stick-with-led-fill-light-for-phone-sport-camera-3-in-1-design-multi-angle-rotation-removable-and-rechargeable-remoter-i278610145-s418877547.html?spm=a2o4l.searchlist.bestshown_1.3.1fa43a4e3ptJfI&amp;search=1</t>
+  </si>
+  <si>
+    <t>5-In-1 Set Multi Function Baby Diaper Nappy Bag Mummy baby bag</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2F5-in-1-set-multi-function-baby-diaper-nappy-bag-mummy-baby-bag-i344762661-s779206187.html</t>
+  </si>
+  <si>
+    <t>435 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/ed6431c4c8ebfed3ee197746ad61ad9b.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>kids,bags</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/5-in-1-set-multi-function-baby-diaper-nappy-bag-mummy-baby-bag-i344762661-s779206187.html?spm=a2o4l.searchlist.list.63.12062c7bNZpOsM&amp;search=1</t>
+  </si>
+  <si>
+    <t>Huggies Dry XL (12-16 kg) - 60 pcs x 1 pack (60 pcs) - Diaper Pants</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fhuggies-dry-xl-12-16-kg-60-pcs-x-1-pack-60-pcs-diaper-pants-i147285353-s172388010.html</t>
+  </si>
+  <si>
+    <t>6737 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/a8f4622e6acb2f32036195210af91555.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/huggies-dry-xl-12-16-kg-60-pcs-x-1-pack-60-pcs-diaper-pants-i147285353-s172388010.html?spm=a2o4l.searchlist.bestshown_1.1.12062c7bNZpOsM&amp;search=1</t>
+  </si>
+  <si>
+    <t>BabeLovey Baby Carrier Infant Comfortable Breathable Multifunctional Sling Backpack Hip Seat Carrier</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fbabelovey-baby-carrier-infant-comfortable-breathable-multifunctional-sling-backpack-hip-seat-carrier-i335048919-s739902743.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/d5d9db3736505b92d86b1548ca6b1df0.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/babelovey-baby-carrier-infant-comfortable-breathable-multifunctional-sling-backpack-hip-seat-carrier-i335048919-s739902743.html?spm=a2o4l.searchlist.bestshown_1.10.12062c7bNZpOsM&amp;search=1</t>
+  </si>
+  <si>
+    <t>Philips AVENT Natural 260ml 9oz 2pack Feeding Bottles</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fphilips-avent-natural-260ml-9oz-2pack-feeding-bottles-i253008648-s346956679.html</t>
+  </si>
+  <si>
+    <t>222 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/a14c80da5a7f8281d05ba640d2017420.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/philips-avent-natural-260ml-9oz-2pack-feeding-bottles-i253008648-s346956679.html?spm=a2o4l.searchlist.list.67.601f6de7cQfMWC&amp;search=1</t>
+  </si>
+  <si>
+    <t>Coolerman 2heatpipe Twin fan CPU Cooler Amd Intel</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fcoolerman-2heatpipe-twin-fan-cpu-cooler-amd-intel-i263152272-s365963228.html</t>
+  </si>
+  <si>
+    <t>499 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/d65152a39ea656781201fb60c197dfec.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>computer,electronics</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/coolerman-2heatpipe-twin-fan-cpu-cooler-amd-intel-i263152272-s365963228.html?spm=a2o4l.searchlist.list.7.4f3179b1tcGjVv&amp;search=1</t>
+  </si>
+  <si>
+    <t>JUWE Portable Electronic Acupuncture Pen, Electric Meridian Energy Body Massager ,Pain Relief Magnet Therapy Instrument ,Pressure Point Healing Pen for Personal Health Beauty</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fjuwe-portable-electronic-acupuncture-pen-electric-meridian-energy-body-massager-pain-relief-magnet-therapy-instrument-pressure-point-healing-pen-for-personal-health-beauty-i349880383-s789984629.html</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/d23e3c7cc3aba39efb3c57c4553b57f8.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>beauties,health and fitness,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/juwe-portable-electronic-acupuncture-pen-electric-meridian-energy-body-massager-pain-relief-magnet-therapy-instrument-pressure-point-healing-pen-for-personal-health-beauty-i349880383-s789984629.html?spm=a2o4l.searchlist.list.5.300936d5xBy3Rq&amp;search=1</t>
+  </si>
+  <si>
+    <t>MEN Swimming trunks /Cycling shorts/Running shorts#505 For Men and Women-Black</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fmen-swimming-trunks-cycling-shortsrunning-shorts505-for-men-and-women-black-i264436994-s370763878.html</t>
+  </si>
+  <si>
+    <t>104 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/687cb54cb07b20b1bdf883c63eacf9d9.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,health and fitness,clothes</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/men-swimming-trunks-cycling-shortsrunning-shorts505-for-men-and-women-black-i264436994-s370763878.html?spm=a2o4l.searchlistcategory.list.1.5fb11ba1JPDawa&amp;search=1</t>
+  </si>
+  <si>
+    <t>High Quality Fashionable Sexy OP Rush Guard for Women</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fhigh-quality-fashionable-sexy-op-rush-guard-for-women-i289854983-s624646909.html</t>
+  </si>
+  <si>
+    <t>147 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/b621cecc9c7ac4aca8324d1aa8141b5c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>outdoor,fashion for women</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/high-quality-fashionable-sexy-op-rush-guard-for-women-i289854983-s624646909.html?spm=a2o4l.searchlist.list.79.496944e9MuEkij&amp;search=1</t>
+  </si>
+  <si>
+    <t>New 20 LED Solar Power Motion Sensor Wall Light Outdoor 20LED</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fnew-20-led-solar-power-motion-sensor-wall-light-outdoor-20led-i424116854-s1049710795.html</t>
+  </si>
+  <si>
+    <t>1383 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/40a3191bf911b35b9c81fb164d47dc0f.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>green technology,electronics</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/new-20-led-solar-power-motion-sensor-wall-light-outdoor-20led-i424116854-s1049710795.html?spm=a2o4l.searchlist.list.1.4372e750BWLI39&amp;search=1</t>
+  </si>
+  <si>
+    <t>EIDERFINCH ADL-123 Helmet Scooter Bike Open Face Anti-UV Safety Hard Hat</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Feiderfinch-adl-123-helmet-scooter-bike-open-face-anti-uv-safety-hard-hat-i379838434-s865360835.html</t>
+  </si>
+  <si>
+    <t>832 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/94bace16769fae383e3f7d9333c50c4c.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>motorcycles,safety</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/eiderfinch-adl-123-helmet-scooter-bike-open-face-anti-uv-safety-hard-hat-i379838434-s865360835.html?spm=a2o4l.searchlist.list.10.1b32f123sHkMBa&amp;search=1</t>
+  </si>
+  <si>
+    <t>V380s IP CAM Wireless WIFI Network Security Two-Way Audio Home Monitor CCTV 360° Panoramic Light Bulb CCTV Camera SKONE(WHITE)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fv380s-ip-cam-wireless-wifi-network-security-two-way-audio-home-monitor-cctv-360-panoramic-light-bulb-cctv-camera-skonewhite-i267879776-s380368069.html</t>
+  </si>
+  <si>
+    <t>5202 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/13588e6ce7191d713009aadfc8c7d532.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>safety,technologies,cameras</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/v380s-ip-cam-wireless-wifi-network-security-two-way-audio-home-monitor-cctv-360-panoramic-light-bulb-cctv-camera-skonewhite-i267879776-s380368069.html?spm=a2o4l.searchlist.list.3.193e166a8Iz9W0&amp;search=1</t>
+  </si>
+  <si>
+    <t>Full HD 1080P Car 7 inch Dash Cam Starlight Night Vision LCD Touch Screen Double lens Car camera rearview mirror Video Recorder DVR (SKONE)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Ffull-hd-1080p-car-7-inch-dash-cam-starlight-night-vision-lcd-touch-screen-double-lens-car-camera-rearview-mirror-video-recorder-dvr-skone-i321752143-s667750041.html</t>
+  </si>
+  <si>
+    <t>1150 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/3282c8d2a6dcfd642c1b220716ebb54e.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>safety,cameras,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/full-hd-1080p-car-7-inch-dash-cam-starlight-night-vision-lcd-touch-screen-double-lens-car-camera-rearview-mirror-video-recorder-dvr-skone-i321752143-s667750041.html?spm=a2o4l.pdp.0.0.53e661e8B7dmsz&amp;promotionId=204279406986349</t>
+  </si>
+  <si>
+    <t>JBL Charge 2 mini Portable Bluetooth Speaker Wireless Splashproof With Built-in</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fjbl-charge-2-mini-portable-bluetooth-speaker-wireless-splashproof-with-built-in-i490244341-s1288268427.html</t>
+  </si>
+  <si>
+    <t>586 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/c371a7dee84a1ce16f208ad81135cf01.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>music,gadget</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/jbl-charge-2-mini-portable-bluetooth-speaker-wireless-splashproof-with-built-in-i490244341-s1288268427.html?spm=a2o4l.searchlistcategory.list.67.26ec5b84whhDlq&amp;search=1</t>
+  </si>
+  <si>
+    <t>(Origina)GameSir X1 Bluetooth BattleDock profession Converter Keyboard and Mouse Adapte for call of duty mobile PUBG Mobile games,Mobile Legends,ROS (no include the keyboard and mouse)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Foriginagamesir-x1-bluetooth-battledock-profession-converter-keyboard-and-mouse-adapte-for-call-of-duty-mobile-pubg-mobile-gamesmobile-legendsros-no-include-the-keyboard-and-mouse-i217017803-s308017757.html</t>
+  </si>
+  <si>
+    <t>694 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/95eac0be13185e048e2112c7d01ee082.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>gaming,gadget,technologies</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/originagamesir-x1-bluetooth-battledock-profession-converter-keyboard-and-mouse-adapte-for-call-of-duty-mobile-pubg-mobile-gamesmobile-legendsros-no-include-the-keyboard-and-mouse-i217017803-s308017757.html?spm=a2o4l.searchlistcategory.list.148.6a5a60fbM97I93&amp;search=1</t>
+  </si>
+  <si>
+    <t>IRON GYM erfect Fitness Multi-Gym Doorway Pull Up Bar Portable Gym System Iron Gym Total Upper Body Workout Bar</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Firon-gym-erfect-fitness-multi-gym-doorway-pull-up-bar-portable-gym-system-iron-gym-total-upper-body-workout-bar-i304390014-s558726287.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/961e691b1693886ceff54af3d819f2d4.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>health and fitness</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/iron-gym-erfect-fitness-multi-gym-doorway-pull-up-bar-portable-gym-system-iron-gym-total-upper-body-workout-bar-i304390014-s558726287.html?spm=a2o4l.searchlistcategory.list.39.280441a5W6burd&amp;search=1</t>
+  </si>
+  <si>
+    <t>DS-Mart Soil PH Meter, 3-in-1 Soil Test Kit For Moisture, Light &amp; PH, Indoor/Outdoors Plant Care Soil Tester (No Battery Needed)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fds-mart-soil-ph-meter-3-in-1-soil-test-kit-for-moisture-light-ph-indooroutdoors-plant-care-soil-tester-no-battery-needed-i266665703-s376021057.html</t>
+  </si>
+  <si>
+    <t>71 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/5d891c32e4db92d83692a8ff0c42f4cc.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/ds-mart-soil-ph-meter-3-in-1-soil-test-kit-for-moisture-light-ph-indooroutdoors-plant-care-soil-tester-no-battery-needed-i266665703-s376021057.html?spm=a2o4l.searchlist.list.21.5fb1610287NaEc&amp;search=1</t>
+  </si>
+  <si>
+    <t>Heavy Duty Motorcycle Alarm System Rotor Disc Lock</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fheavy-duty-motorcycle-alarm-system-rotor-disc-lock-i297502049-s504620665.html</t>
+  </si>
+  <si>
+    <t>102 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/fbdee96a03367fb5bb4c076102974d96.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/heavy-duty-motorcycle-alarm-system-rotor-disc-lock-i297502049-s504620665.html?spm=a2o4l.searchlistcategory.list.5.4c895c3dLyzGGd&amp;search=1</t>
+  </si>
+  <si>
+    <t>ALVIN# Motorcycle Leather Jacket For Men</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Falvin-motorcycle-leather-jacket-for-men-i325722427-s684044340.html</t>
+  </si>
+  <si>
+    <t>149 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/7016d3d84fb0ae9a5412d4e63d737a73.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>motorcycles,fashion for men</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/alvin-motorcycle-leather-jacket-for-men-i325722427-s684044340.html?spm=a2o4l.searchlist.list.4.77db1f05oDCQTH&amp;search=1</t>
+  </si>
+  <si>
+    <t>Push Up Stand (Color May Vary)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fpush-up-stand-color-may-vary-i257779617-s355170228.html</t>
+  </si>
+  <si>
+    <t>390 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/10b0f39ee04e2fb614e3cb4946666210.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/push-up-stand-color-may-vary-i257779617-s355170228.html?spm=a2o4l.searchlistcategory.list.1.280441a5W6burd&amp;search=1</t>
+  </si>
+  <si>
+    <t>Baby Food Maker Blender 20pcs (Light Green) OEM</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fbaby-food-maker-blender-20pcs-light-green-oem-i124527009-s130089368.html</t>
+  </si>
+  <si>
+    <t>134 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/8e0b559da3b665a62a0627e4a10f6e5b.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>kids,health and fitness,kitchen</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/baby-food-maker-blender-20pcs-light-green-oem-i124527009-s130089368.html?spm=a2o4l.searchlistcategory.list.19.4b8829eemcrjTt&amp;search=1</t>
+  </si>
+  <si>
+    <t>Babybee Food Maker, Steamer and Blenders with Milk Bottle Warmer</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fbabybee-food-maker-steamer-and-blenders-with-milk-bottle-warmer-i262264688-s362897338.html</t>
+  </si>
+  <si>
+    <t>92 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/original/8d952e77044e68ce5abcdd91033588ce.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/babybee-food-maker-steamer-and-blenders-with-milk-bottle-warmer-i262264688-s362897338.html?spm=a2o4l.searchlistcategory.list.44.4b8829eemcrjTt&amp;search=1</t>
+  </si>
+  <si>
+    <t>Multi Purpose Kitchen Basket Colander</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fmulti-purpose-kitchen-basket-colander-i719676-s333681103.html</t>
+  </si>
+  <si>
+    <t>9 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/b4cf0b432c1c26bc094a38db11a4bfe5.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/multi-purpose-kitchen-basket-colander-i719676-s333681103.html?spm=a2o4l.searchlistcategory.list.55.2dc32d8bYvbtNN&amp;search=1</t>
+  </si>
+  <si>
+    <t>AUTHENTIC HAPPY SPECIAL DOUBLE SIDED GRILL/FRYING PAN (made in Korea 32cm )</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fauthentic-happy-special-double-sided-grillfrying-pan-made-in-korea-32cm-i277772562-s416033822.html</t>
+  </si>
+  <si>
+    <t>119 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/54eb6c3f9db4501918cacd544351dae6.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/authentic-happy-special-double-sided-grillfrying-pan-made-in-korea-32cm-i277772562-s416033822.html?spm=a2o4l.searchlistcategory.bestshown_1.3.2dc32d8bYvbtNN&amp;search=1</t>
+  </si>
+  <si>
+    <t>King Cobra K-691 Full Face Motorcycle Helmet</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fking-cobra-k-691-full-face-motorcycle-helmet-i9478210-s12046819.html</t>
+  </si>
+  <si>
+    <t>1566 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/8/king-cobra-k-691-full-face-motorcycle-helmet-black-0468-5399168-5c4cb018449bd565714db9b7c3217368.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/king-cobra-k-691-full-face-motorcycle-helmet-i9478210-s12046819.html?spm=a2o4l.searchlist.list.107.1b32f1237s4T7o&amp;search=1</t>
+  </si>
+  <si>
+    <t>Whiskas Junior Ocean Fish Flavor w/Milk Dry Cat Food (1.1kg)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fwhiskas-junior-ocean-fish-flavor-wmilk-dry-cat-food-11kg-i261655835-s361299580.html</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/900e519c52338b85f325f932433c2ccf.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/whiskas-junior-ocean-fish-flavor-wmilk-dry-cat-food-11kg-i261655835-s361299580.html?spm=a2o4l.searchlistcategory.list.21.79bc2eb2jNQTUT&amp;search=1</t>
+  </si>
+  <si>
+    <t>WHISKAS® Adult Ocean Fish Wet Can Cat Food Set of 6 (400g)</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fwhiskas-adult-ocean-fish-wet-can-cat-food-set-of-6-400g-i261794478-s361645547.html</t>
+  </si>
+  <si>
+    <t>148 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/9e6aaab9aa8c547b6c4e6ef7bdb3ac41.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/whiskas-adult-ocean-fish-wet-can-cat-food-set-of-6-400g-i261794478-s361645547.html?spm=a2o4l.searchlistcategory.list.1.79bc2eb2jNQTUT&amp;search=1</t>
+  </si>
+  <si>
+    <t>Magnus Maxx bulking powder 1kg</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Fmagnus-maxx-bulking-powder-1kg-i492460697-s1297174582.html</t>
+  </si>
+  <si>
+    <t>20 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/ba336948e87ab2103531e998dfe246ab.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/magnus-maxx-bulking-powder-1kg-i492460697-s1297174582.html?spm=a2o4l.searchlistcategory.list.29.48ce6bf9DmWtKc&amp;search=1</t>
+  </si>
+  <si>
+    <t>ORGANONO Screwless DIY 6 Cubes Metal Net Frame Cabinet Wardrobe Adjustable Stackble Display Storage Organizer Rack for Office Home Room</t>
+  </si>
+  <si>
+    <t>https://c.lazada.com.ph/t/c.YOJP?url=https%3A%2F%2Fwww.lazada.com.ph%2Fproducts%2Forganono-screwless-diy-6-cubes-metal-net-frame-cabinet-wardrobe-adjustable-stackble-display-storage-organizer-rack-for-office-home-room-i300038162-s522168393.html</t>
+  </si>
+  <si>
+    <t>97 Ratings</t>
+  </si>
+  <si>
+    <t>https://ph-test-11.slatic.net/p/53044ae9bd0d3f1b8fa0f4e73f367083.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>home and living</t>
+  </si>
+  <si>
+    <t>https://www.lazada.com.ph/products/organono-screwless-diy-6-cubes-metal-net-frame-cabinet-wardrobe-adjustable-stackble-display-storage-organizer-rack-for-office-home-room-i300038162-s522168393.html?spm=a2o4l.searchlistcategory.list.158.7f4d2659eGcm3k&amp;search=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;₱&quot;#,##0.00;[Red]\-&quot;₱&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -830,13 +2295,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,15 +2619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55231FD1-3D67-421E-AA2B-FAA9B807182D}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="9.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1174,7 +2642,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -1210,19 +2678,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="6">
-        <v>99</v>
-      </c>
-      <c r="E2" s="6">
+        <v>123.05</v>
+      </c>
+      <c r="E2" s="7">
         <v>499</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.8</v>
+        <v>-0.75</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1239,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
@@ -1247,7 +2715,7 @@
       <c r="D3" s="6">
         <v>3599</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>7598</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1282,14 +2750,14 @@
       <c r="D4" s="6">
         <v>299</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>500</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H4" s="1">
         <v>-0.4</v>
@@ -1317,14 +2785,14 @@
       <c r="D5" s="6">
         <v>1082.52</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>1116</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H5" s="1">
         <v>-0.03</v>
@@ -1344,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -1352,14 +2820,14 @@
       <c r="D6" s="6">
         <v>299</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H6" s="1">
         <v>-0.14000000000000001</v>
@@ -1385,19 +2853,19 @@
         <v>36</v>
       </c>
       <c r="D7" s="6">
-        <v>102</v>
-      </c>
-      <c r="E7" s="6">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7">
         <v>231</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H7" s="1">
-        <v>-0.56000000000000005</v>
+        <v>-0.61</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -1422,7 +2890,7 @@
       <c r="D8" s="6">
         <v>399</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>1799</v>
       </c>
       <c r="F8" t="s">
@@ -1457,7 +2925,7 @@
       <c r="D9" s="6">
         <v>393</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>693</v>
       </c>
       <c r="F9" t="s">
@@ -1492,26 +2960,26 @@
       <c r="D10" s="6">
         <v>129</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>399</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="H10" s="1">
         <v>-0.68</v>
       </c>
       <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1519,34 +2987,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="6">
         <v>398</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>450</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>-0.12</v>
       </c>
       <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1554,34 +3022,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="6">
         <v>699</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>1199</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H12" s="1">
         <v>-0.42</v>
       </c>
       <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
         <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1589,34 +3057,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6">
         <v>171.5</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>500</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1">
         <v>-0.66</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1624,34 +3092,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6">
         <v>150</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>399</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H14" s="1">
         <v>-0.62</v>
       </c>
       <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
         <v>77</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1659,34 +3127,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6">
         <v>260</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>999</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H15" s="1">
         <v>-0.74</v>
       </c>
       <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
         <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1694,34 +3162,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="6">
         <v>269</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>399</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H16" s="1">
         <v>-0.33</v>
       </c>
       <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
         <v>87</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1729,25 +3197,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D17" s="6">
-        <v>218</v>
-      </c>
-      <c r="E17" s="6">
+        <v>249</v>
+      </c>
+      <c r="E17" s="7">
         <v>500</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1">
-        <v>-0.56000000000000005</v>
+        <v>-0.5</v>
       </c>
       <c r="I17" t="s">
         <v>92</v>
@@ -1772,7 +3240,7 @@
       <c r="D18" s="6">
         <v>239</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
@@ -1805,9 +3273,9 @@
         <v>102</v>
       </c>
       <c r="D19" s="6">
-        <v>648</v>
-      </c>
-      <c r="E19" s="6">
+        <v>563.73</v>
+      </c>
+      <c r="E19" s="7">
         <v>713.7</v>
       </c>
       <c r="F19" t="s">
@@ -1817,7 +3285,7 @@
         <v>103</v>
       </c>
       <c r="H19" s="1">
-        <v>-0.09</v>
+        <v>-0.21</v>
       </c>
       <c r="I19" t="s">
         <v>104</v>
@@ -1842,7 +3310,7 @@
       <c r="D20" s="6">
         <v>1500</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>2500</v>
       </c>
       <c r="F20" t="s">
@@ -1875,9 +3343,9 @@
         <v>115</v>
       </c>
       <c r="D21" s="6">
-        <v>5499</v>
-      </c>
-      <c r="E21" s="6">
+        <v>5183.54</v>
+      </c>
+      <c r="E21" s="7">
         <v>14999</v>
       </c>
       <c r="F21" t="s">
@@ -1887,7 +3355,7 @@
         <v>117</v>
       </c>
       <c r="H21" s="1">
-        <v>-0.63</v>
+        <v>-0.65</v>
       </c>
       <c r="I21" t="s">
         <v>118</v>
@@ -1912,26 +3380,26 @@
       <c r="D22" s="6">
         <v>245</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>1799</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H22" s="1">
         <v>-0.86</v>
       </c>
       <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" t="s">
         <v>124</v>
-      </c>
-      <c r="J22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1939,34 +3407,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6">
         <v>372</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>999</v>
       </c>
       <c r="F23" t="s">
         <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H23" s="1">
         <v>-0.63</v>
       </c>
       <c r="I23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" t="s">
         <v>129</v>
-      </c>
-      <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1974,34 +3442,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="6">
         <v>600</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>749.75</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H24" s="1">
         <v>-0.2</v>
       </c>
       <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s">
         <v>135</v>
-      </c>
-      <c r="J24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2009,34 +3477,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6">
         <v>426</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>2499</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H25" s="1">
         <v>-0.83</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2044,34 +3512,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="6">
         <v>695</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>1400</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1">
         <v>-0.5</v>
       </c>
       <c r="I26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" t="s">
         <v>146</v>
-      </c>
-      <c r="J26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2079,34 +3547,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="6">
         <v>551</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>1653</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H27" s="1">
         <v>-0.67</v>
       </c>
       <c r="I27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" t="s">
         <v>153</v>
-      </c>
-      <c r="J27" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2114,34 +3582,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="6">
         <v>1760</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>3117</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H28" s="1">
         <v>-0.44</v>
       </c>
       <c r="I28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" t="s">
         <v>159</v>
-      </c>
-      <c r="J28" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2149,34 +3617,34 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="6">
+        <v>278</v>
+      </c>
+      <c r="E29" s="7">
+        <v>370</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="H29" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="I29" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="6">
-        <v>282</v>
-      </c>
-      <c r="E29" s="6">
-        <v>370</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="1">
-        <v>-0.24</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>165</v>
-      </c>
-      <c r="J29" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2184,34 +3652,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="6">
         <v>937.99</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>2599</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1">
         <v>-0.64</v>
       </c>
       <c r="I30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2219,34 +3687,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="6">
-        <v>939.57</v>
-      </c>
-      <c r="E31" s="6">
+        <v>939.73</v>
+      </c>
+      <c r="E31" s="7">
         <v>2599</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="H31" s="1">
         <v>-0.64</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2254,34 +3722,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" s="6">
         <v>1341</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>6164</v>
       </c>
       <c r="F32" t="s">
         <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H32" s="1">
         <v>-0.78</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2289,15 +3757,15 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D33" s="6">
         <v>370</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>706</v>
       </c>
       <c r="F33" t="s">
@@ -2310,13 +3778,13 @@
         <v>-0.48</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2324,34 +3792,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="6">
         <v>16224.1</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="7">
         <v>17500</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H34" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2359,34 +3827,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D35" s="6">
         <v>3899</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>7798</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="H35" s="1">
         <v>-0.5</v>
       </c>
       <c r="I35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2394,34 +3862,34 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1256</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1943</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="K36" t="s">
         <v>200</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1218</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1943</v>
-      </c>
-      <c r="F36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="1">
-        <v>-0.37</v>
-      </c>
-      <c r="I36" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2429,34 +3897,34 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D37" s="6">
         <v>1256.1500000000001</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>2490</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H37" s="1">
         <v>-0.5</v>
       </c>
       <c r="I37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2464,15 +3932,15 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D38" s="6">
         <v>1474.4</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>2855</v>
       </c>
       <c r="F38" t="s">
@@ -2485,13 +3953,13 @@
         <v>-0.48</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2499,34 +3967,34 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D39" s="6">
         <v>460.6</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>801</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1">
         <v>-0.42</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2534,34 +4002,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D40" s="6">
         <v>9849.75</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>25000</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H40" s="1">
         <v>-0.61</v>
       </c>
       <c r="I40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2569,34 +4037,34 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D41" s="6">
         <v>654</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>2599</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="H41" s="1">
         <v>-0.75</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2604,34 +4072,3295 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D42" s="6">
         <v>146</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>350</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H42" s="1">
         <v>-0.57999999999999996</v>
       </c>
       <c r="I42" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J42" t="s">
         <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="6">
+        <v>320</v>
+      </c>
+      <c r="E43" s="7">
+        <v>500</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="I43" t="s">
+        <v>252</v>
+      </c>
+      <c r="J43" t="s">
+        <v>253</v>
+      </c>
+      <c r="K43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="6">
+        <v>268.73</v>
+      </c>
+      <c r="E44" s="7">
+        <v>699</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="1">
+        <v>-0.62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="6">
+        <v>374.69</v>
+      </c>
+      <c r="E45" s="7">
+        <v>643</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="I45" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="6">
+        <v>151</v>
+      </c>
+      <c r="E46" s="7">
+        <v>302</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="6">
+        <v>180</v>
+      </c>
+      <c r="E47" s="7">
+        <v>799</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" s="1">
+        <v>-0.77</v>
+      </c>
+      <c r="I47" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" t="s">
+        <v>212</v>
+      </c>
+      <c r="K47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="6">
+        <v>277</v>
+      </c>
+      <c r="E48" s="7">
+        <v>416</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="6">
+        <v>285</v>
+      </c>
+      <c r="E49" s="7">
+        <v>428</v>
+      </c>
+      <c r="F49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="6">
+        <v>296</v>
+      </c>
+      <c r="E50" s="7">
+        <v>385</v>
+      </c>
+      <c r="F50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="6">
+        <v>335</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-0.72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D52" s="6">
+        <v>598</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="I52" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" s="6">
+        <v>380</v>
+      </c>
+      <c r="E53" s="7">
+        <v>450</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" s="6">
+        <v>399</v>
+      </c>
+      <c r="E54" s="7">
+        <v>999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>312</v>
+      </c>
+      <c r="H54" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="6">
+        <v>794</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1079</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>318</v>
+      </c>
+      <c r="H55" s="1">
+        <v>-0.26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="6">
+        <v>745</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>324</v>
+      </c>
+      <c r="J56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" s="6">
+        <v>961</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1272</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>318</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-0.24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" t="s">
+        <v>330</v>
+      </c>
+      <c r="K57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="6">
+        <v>999</v>
+      </c>
+      <c r="E58" s="7">
+        <v>5986</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-0.83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>339</v>
+      </c>
+      <c r="H59" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>340</v>
+      </c>
+      <c r="J59" t="s">
+        <v>119</v>
+      </c>
+      <c r="K59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1052</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1903</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>344</v>
+      </c>
+      <c r="H60" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>345</v>
+      </c>
+      <c r="J60" t="s">
+        <v>346</v>
+      </c>
+      <c r="K60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1070</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2674</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" t="s">
+        <v>351</v>
+      </c>
+      <c r="K61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1561</v>
+      </c>
+      <c r="E62" s="7">
+        <v>2402</v>
+      </c>
+      <c r="F62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="I62" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" t="s">
+        <v>356</v>
+      </c>
+      <c r="K62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1796</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2577</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>360</v>
+      </c>
+      <c r="J63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1961</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>365</v>
+      </c>
+      <c r="J64" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>367</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2450</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="1">
+        <v>-0.49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" t="s">
+        <v>356</v>
+      </c>
+      <c r="K65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D66" s="6">
+        <v>5528</v>
+      </c>
+      <c r="E66" s="7">
+        <v>9214</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>373</v>
+      </c>
+      <c r="J66" t="s">
+        <v>374</v>
+      </c>
+      <c r="K66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10329</v>
+      </c>
+      <c r="E67" s="7">
+        <v>10400</v>
+      </c>
+      <c r="F67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="5">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" s="6">
+        <v>520</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1600</v>
+      </c>
+      <c r="F68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" t="s">
+        <v>210</v>
+      </c>
+      <c r="H68" s="1">
+        <v>-0.68</v>
+      </c>
+      <c r="I68" t="s">
+        <v>382</v>
+      </c>
+      <c r="J68" t="s">
+        <v>383</v>
+      </c>
+      <c r="K68" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>385</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" s="6">
+        <v>2350</v>
+      </c>
+      <c r="E69" s="7">
+        <v>2799</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" t="s">
+        <v>110</v>
+      </c>
+      <c r="H69" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>387</v>
+      </c>
+      <c r="J69" t="s">
+        <v>179</v>
+      </c>
+      <c r="K69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D70" s="6">
+        <v>219</v>
+      </c>
+      <c r="E70" s="7">
+        <v>319</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>391</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="I70" t="s">
+        <v>392</v>
+      </c>
+      <c r="J70" t="s">
+        <v>393</v>
+      </c>
+      <c r="K70" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>395</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D71" s="6">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="E71" s="7">
+        <v>541.30999999999995</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" s="1">
+        <v>-0.41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>397</v>
+      </c>
+      <c r="J71" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3169</v>
+      </c>
+      <c r="E72" s="7">
+        <v>3793</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-0.16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>401</v>
+      </c>
+      <c r="J72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3300</v>
+      </c>
+      <c r="E73" s="7">
+        <v>10500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>249</v>
+      </c>
+      <c r="H73" s="1">
+        <v>-0.69</v>
+      </c>
+      <c r="I73" t="s">
+        <v>406</v>
+      </c>
+      <c r="J73" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D74" s="6">
+        <v>2315</v>
+      </c>
+      <c r="E74" s="7">
+        <v>3010</v>
+      </c>
+      <c r="F74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>411</v>
+      </c>
+      <c r="J74" t="s">
+        <v>412</v>
+      </c>
+      <c r="K74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="6">
+        <v>2319</v>
+      </c>
+      <c r="E75" s="7">
+        <v>5800</v>
+      </c>
+      <c r="F75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>416</v>
+      </c>
+      <c r="J75" t="s">
+        <v>179</v>
+      </c>
+      <c r="K75" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>418</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="6">
+        <v>2790</v>
+      </c>
+      <c r="E76" s="7">
+        <v>5280</v>
+      </c>
+      <c r="F76" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" t="s">
+        <v>420</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>421</v>
+      </c>
+      <c r="J76" t="s">
+        <v>356</v>
+      </c>
+      <c r="K76" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>423</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1290</v>
+      </c>
+      <c r="E77" s="7">
+        <v>2580</v>
+      </c>
+      <c r="F77" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>425</v>
+      </c>
+      <c r="J77" t="s">
+        <v>426</v>
+      </c>
+      <c r="K77" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>428</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D78" s="6">
+        <v>740</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1075</v>
+      </c>
+      <c r="F78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G78" t="s">
+        <v>430</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>431</v>
+      </c>
+      <c r="J78" t="s">
+        <v>432</v>
+      </c>
+      <c r="K78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" s="6">
+        <v>288</v>
+      </c>
+      <c r="E79" s="7">
+        <v>2399</v>
+      </c>
+      <c r="F79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s">
+        <v>436</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-0.88</v>
+      </c>
+      <c r="I79" t="s">
+        <v>437</v>
+      </c>
+      <c r="J79" t="s">
+        <v>438</v>
+      </c>
+      <c r="K79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>440</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" s="6">
+        <v>300</v>
+      </c>
+      <c r="E80" s="7">
+        <v>520</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>442</v>
+      </c>
+      <c r="H80" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="I80" t="s">
+        <v>443</v>
+      </c>
+      <c r="J80" t="s">
+        <v>444</v>
+      </c>
+      <c r="K80" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" s="6">
+        <v>319</v>
+      </c>
+      <c r="E81" s="7">
+        <v>479</v>
+      </c>
+      <c r="F81" t="s">
+        <v>448</v>
+      </c>
+      <c r="G81" t="s">
+        <v>391</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>449</v>
+      </c>
+      <c r="J81" t="s">
+        <v>450</v>
+      </c>
+      <c r="K81" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>452</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D82" s="6">
+        <v>549</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1830</v>
+      </c>
+      <c r="F82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G82" t="s">
+        <v>454</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>455</v>
+      </c>
+      <c r="J82" t="s">
+        <v>383</v>
+      </c>
+      <c r="K82" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D83" s="6">
+        <v>864</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1728</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>459</v>
+      </c>
+      <c r="H83" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>460</v>
+      </c>
+      <c r="J83" t="s">
+        <v>461</v>
+      </c>
+      <c r="K83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>463</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D84" s="6">
+        <v>950</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1498</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>465</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="I84" t="s">
+        <v>466</v>
+      </c>
+      <c r="J84" t="s">
+        <v>356</v>
+      </c>
+      <c r="K84" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1250</v>
+      </c>
+      <c r="E85" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>470</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="I85" t="s">
+        <v>471</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+      <c r="K85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>473</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2580</v>
+      </c>
+      <c r="E86" s="7">
+        <v>3481</v>
+      </c>
+      <c r="F86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-0.26</v>
+      </c>
+      <c r="I86" t="s">
+        <v>475</v>
+      </c>
+      <c r="J86" t="s">
+        <v>179</v>
+      </c>
+      <c r="K86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>477</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3870</v>
+      </c>
+      <c r="E87" s="7">
+        <v>4723</v>
+      </c>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>479</v>
+      </c>
+      <c r="J87" t="s">
+        <v>480</v>
+      </c>
+      <c r="K87" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D88" s="6">
+        <v>699</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1499</v>
+      </c>
+      <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
+        <v>484</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-0.53</v>
+      </c>
+      <c r="I88" t="s">
+        <v>485</v>
+      </c>
+      <c r="J88" t="s">
+        <v>486</v>
+      </c>
+      <c r="K88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D89" s="6">
+        <v>2999</v>
+      </c>
+      <c r="E89" s="7">
+        <v>5415</v>
+      </c>
+      <c r="F89" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" t="s">
+        <v>110</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="I89" t="s">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s">
+        <v>461</v>
+      </c>
+      <c r="K89" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>492</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D90" s="6">
+        <v>368</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1300</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>494</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-0.72</v>
+      </c>
+      <c r="I90" t="s">
+        <v>495</v>
+      </c>
+      <c r="J90" t="s">
+        <v>383</v>
+      </c>
+      <c r="K90" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>497</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D91" s="6">
+        <v>348</v>
+      </c>
+      <c r="E91" s="7">
+        <v>499</v>
+      </c>
+      <c r="F91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>499</v>
+      </c>
+      <c r="J91" t="s">
+        <v>500</v>
+      </c>
+      <c r="K91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" t="s">
+        <v>504</v>
+      </c>
+      <c r="F92" s="7">
+        <v>159</v>
+      </c>
+      <c r="G92" s="7">
+        <v>580</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>505</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-0.73</v>
+      </c>
+      <c r="K92" t="s">
+        <v>506</v>
+      </c>
+      <c r="L92" t="s">
+        <v>212</v>
+      </c>
+      <c r="M92" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>508</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1399</v>
+      </c>
+      <c r="E93" s="7">
+        <v>4999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
+        <v>510</v>
+      </c>
+      <c r="H93" s="1">
+        <v>-0.72</v>
+      </c>
+      <c r="I93" t="s">
+        <v>511</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+      <c r="K93" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>513</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D94" s="6">
+        <v>459</v>
+      </c>
+      <c r="E94" s="7">
+        <v>999</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>515</v>
+      </c>
+      <c r="H94" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="I94" t="s">
+        <v>516</v>
+      </c>
+      <c r="J94" t="s">
+        <v>314</v>
+      </c>
+      <c r="K94" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D95" s="6">
+        <v>469</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1111</v>
+      </c>
+      <c r="F95" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+      <c r="H95" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I95" t="s">
+        <v>520</v>
+      </c>
+      <c r="J95" t="s">
+        <v>521</v>
+      </c>
+      <c r="K95" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>523</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D96" s="6">
+        <v>2315</v>
+      </c>
+      <c r="E96" s="7">
+        <v>3010</v>
+      </c>
+      <c r="F96" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>525</v>
+      </c>
+      <c r="J96" t="s">
+        <v>346</v>
+      </c>
+      <c r="K96" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>527</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D97" s="6">
+        <v>5528</v>
+      </c>
+      <c r="E97" s="7">
+        <v>9214</v>
+      </c>
+      <c r="F97" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>529</v>
+      </c>
+      <c r="J97" t="s">
+        <v>374</v>
+      </c>
+      <c r="K97" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>531</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D98" s="6">
+        <v>500</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>533</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I98" t="s">
+        <v>534</v>
+      </c>
+      <c r="J98" t="s">
+        <v>535</v>
+      </c>
+      <c r="K98" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D99" s="6">
+        <v>237.77</v>
+      </c>
+      <c r="E99" s="7">
+        <v>767.77</v>
+      </c>
+      <c r="F99" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
+        <v>539</v>
+      </c>
+      <c r="H99" s="1">
+        <v>-0.69</v>
+      </c>
+      <c r="I99" t="s">
+        <v>540</v>
+      </c>
+      <c r="J99" t="s">
+        <v>535</v>
+      </c>
+      <c r="K99" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>542</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D100" s="6">
+        <v>799</v>
+      </c>
+      <c r="E100" s="7">
+        <v>1999</v>
+      </c>
+      <c r="F100" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" t="s">
+        <v>544</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>545</v>
+      </c>
+      <c r="J100" t="s">
+        <v>546</v>
+      </c>
+      <c r="K100" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>548</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D101" s="6">
+        <v>248</v>
+      </c>
+      <c r="E101" s="7">
+        <v>999</v>
+      </c>
+      <c r="F101" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" t="s">
+        <v>550</v>
+      </c>
+      <c r="H101" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="I101" t="s">
+        <v>551</v>
+      </c>
+      <c r="J101" t="s">
+        <v>552</v>
+      </c>
+      <c r="K101" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>554</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D102" s="6">
+        <v>625</v>
+      </c>
+      <c r="E102" s="7">
+        <v>2379</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>556</v>
+      </c>
+      <c r="H102" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="I102" t="s">
+        <v>557</v>
+      </c>
+      <c r="J102" t="s">
+        <v>558</v>
+      </c>
+      <c r="K102" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>560</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D103" s="6">
+        <v>689</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1999</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>562</v>
+      </c>
+      <c r="H103" s="1">
+        <v>-0.66</v>
+      </c>
+      <c r="I103" t="s">
+        <v>563</v>
+      </c>
+      <c r="J103" t="s">
+        <v>558</v>
+      </c>
+      <c r="K103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>565</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D104" s="6">
+        <v>928.62</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1499</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>567</v>
+      </c>
+      <c r="H104" s="1">
+        <v>-0.38</v>
+      </c>
+      <c r="I104" t="s">
+        <v>568</v>
+      </c>
+      <c r="J104" t="s">
+        <v>569</v>
+      </c>
+      <c r="K104" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>571</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D105" s="6">
+        <v>809</v>
+      </c>
+      <c r="E105" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>573</v>
+      </c>
+      <c r="H105" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="I105" t="s">
+        <v>574</v>
+      </c>
+      <c r="J105" t="s">
+        <v>569</v>
+      </c>
+      <c r="K105" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>576</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1249</v>
+      </c>
+      <c r="E106" s="7">
+        <v>2999</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>578</v>
+      </c>
+      <c r="H106" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I106" t="s">
+        <v>579</v>
+      </c>
+      <c r="J106" t="s">
+        <v>580</v>
+      </c>
+      <c r="K106" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>582</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D107" s="6">
+        <v>833</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1754</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>584</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-0.53</v>
+      </c>
+      <c r="I107" t="s">
+        <v>585</v>
+      </c>
+      <c r="J107" t="s">
+        <v>383</v>
+      </c>
+      <c r="K107" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>587</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D108" s="6">
+        <v>349</v>
+      </c>
+      <c r="E108" s="7">
+        <v>599</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>589</v>
+      </c>
+      <c r="H108" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="I108" t="s">
+        <v>590</v>
+      </c>
+      <c r="J108" t="s">
+        <v>591</v>
+      </c>
+      <c r="K108" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D109" s="6">
+        <v>711.98</v>
+      </c>
+      <c r="E109" s="7">
+        <v>734</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>595</v>
+      </c>
+      <c r="H109" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="I109" t="s">
+        <v>596</v>
+      </c>
+      <c r="J109" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>598</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D110" s="6">
+        <v>699</v>
+      </c>
+      <c r="E110" s="7">
+        <v>1399</v>
+      </c>
+      <c r="F110" t="s">
+        <v>109</v>
+      </c>
+      <c r="G110" t="s">
+        <v>110</v>
+      </c>
+      <c r="H110" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="I110" t="s">
+        <v>600</v>
+      </c>
+      <c r="J110" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>602</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D111" s="6">
+        <v>970</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1750</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>604</v>
+      </c>
+      <c r="H111" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="I111" t="s">
+        <v>605</v>
+      </c>
+      <c r="J111" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>607</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D112" s="6">
+        <v>550</v>
+      </c>
+      <c r="E112" s="7">
+        <v>899</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>609</v>
+      </c>
+      <c r="H112" s="1">
+        <v>-0.39</v>
+      </c>
+      <c r="I112" t="s">
+        <v>610</v>
+      </c>
+      <c r="J112" t="s">
+        <v>611</v>
+      </c>
+      <c r="K112" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>613</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D113" s="6">
+        <v>288</v>
+      </c>
+      <c r="E113" s="7">
+        <v>547</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>420</v>
+      </c>
+      <c r="H113" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>615</v>
+      </c>
+      <c r="J113" t="s">
+        <v>616</v>
+      </c>
+      <c r="K113" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>618</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D114" s="6">
+        <v>99</v>
+      </c>
+      <c r="E114" s="7">
+        <v>589</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>620</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-0.83</v>
+      </c>
+      <c r="I114" t="s">
+        <v>621</v>
+      </c>
+      <c r="J114" t="s">
+        <v>622</v>
+      </c>
+      <c r="K114" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>624</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="6">
+        <v>380</v>
+      </c>
+      <c r="E115" s="7">
+        <v>800</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>626</v>
+      </c>
+      <c r="H115" s="1">
+        <v>-0.52</v>
+      </c>
+      <c r="I115" t="s">
+        <v>627</v>
+      </c>
+      <c r="J115" t="s">
+        <v>628</v>
+      </c>
+      <c r="K115" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>630</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D116" s="6">
+        <v>89.28</v>
+      </c>
+      <c r="E116" s="7">
+        <v>399</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>632</v>
+      </c>
+      <c r="H116" s="1">
+        <v>-0.78</v>
+      </c>
+      <c r="I116" t="s">
+        <v>633</v>
+      </c>
+      <c r="J116" t="s">
+        <v>634</v>
+      </c>
+      <c r="K116" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>636</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D117" s="6">
+        <v>239</v>
+      </c>
+      <c r="E117" s="7">
+        <v>589</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>638</v>
+      </c>
+      <c r="H117" s="1">
+        <v>-0.59</v>
+      </c>
+      <c r="I117" t="s">
+        <v>639</v>
+      </c>
+      <c r="J117" t="s">
+        <v>640</v>
+      </c>
+      <c r="K117" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>642</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D118" s="6">
+        <v>749</v>
+      </c>
+      <c r="E118" s="7">
+        <v>2999</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>644</v>
+      </c>
+      <c r="H118" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="I118" t="s">
+        <v>645</v>
+      </c>
+      <c r="J118" t="s">
+        <v>646</v>
+      </c>
+      <c r="K118" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>648</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1598</v>
+      </c>
+      <c r="E119" s="7">
+        <v>3999</v>
+      </c>
+      <c r="F119" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" t="s">
+        <v>650</v>
+      </c>
+      <c r="H119" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="I119" t="s">
+        <v>651</v>
+      </c>
+      <c r="J119" t="s">
+        <v>652</v>
+      </c>
+      <c r="K119" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>654</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D120" s="6">
+        <v>239</v>
+      </c>
+      <c r="E120" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>656</v>
+      </c>
+      <c r="H120" s="1">
+        <v>-0.94</v>
+      </c>
+      <c r="I120" t="s">
+        <v>657</v>
+      </c>
+      <c r="J120" t="s">
+        <v>658</v>
+      </c>
+      <c r="K120" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>660</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1044</v>
+      </c>
+      <c r="E121" s="7">
+        <v>5580</v>
+      </c>
+      <c r="F121" t="s">
+        <v>41</v>
+      </c>
+      <c r="G121" t="s">
+        <v>662</v>
+      </c>
+      <c r="H121" s="1">
+        <v>-0.81</v>
+      </c>
+      <c r="I121" t="s">
+        <v>663</v>
+      </c>
+      <c r="J121" t="s">
+        <v>664</v>
+      </c>
+      <c r="K121" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>666</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D122" s="6">
+        <v>325</v>
+      </c>
+      <c r="E122" s="7">
+        <v>899</v>
+      </c>
+      <c r="F122" t="s">
+        <v>41</v>
+      </c>
+      <c r="G122" t="s">
+        <v>339</v>
+      </c>
+      <c r="H122" s="1">
+        <v>-0.64</v>
+      </c>
+      <c r="I122" t="s">
+        <v>668</v>
+      </c>
+      <c r="J122" t="s">
+        <v>669</v>
+      </c>
+      <c r="K122" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>671</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D123" s="6">
+        <v>278</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1332.8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>673</v>
+      </c>
+      <c r="H123" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="I123" t="s">
+        <v>674</v>
+      </c>
+      <c r="J123" t="s">
+        <v>66</v>
+      </c>
+      <c r="K123" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>676</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D124" s="6">
+        <v>349</v>
+      </c>
+      <c r="E124" s="7">
+        <v>500</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>678</v>
+      </c>
+      <c r="H124" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="I124" t="s">
+        <v>679</v>
+      </c>
+      <c r="J124" t="s">
+        <v>640</v>
+      </c>
+      <c r="K124" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>681</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D125" s="6">
+        <v>780</v>
+      </c>
+      <c r="E125" s="7">
+        <v>2999</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>683</v>
+      </c>
+      <c r="H125" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="I125" t="s">
+        <v>684</v>
+      </c>
+      <c r="J125" t="s">
+        <v>685</v>
+      </c>
+      <c r="K125" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>687</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D126" s="6">
+        <v>147</v>
+      </c>
+      <c r="E126" s="7">
+        <v>999</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>689</v>
+      </c>
+      <c r="H126" s="1">
+        <v>-0.85</v>
+      </c>
+      <c r="I126" t="s">
+        <v>690</v>
+      </c>
+      <c r="J126" t="s">
+        <v>669</v>
+      </c>
+      <c r="K126" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>692</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1250</v>
+      </c>
+      <c r="E127" s="7">
+        <v>2999</v>
+      </c>
+      <c r="F127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" t="s">
+        <v>694</v>
+      </c>
+      <c r="H127" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I127" t="s">
+        <v>695</v>
+      </c>
+      <c r="J127" t="s">
+        <v>696</v>
+      </c>
+      <c r="K127" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>698</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D128" s="6">
+        <v>3999</v>
+      </c>
+      <c r="E128" s="7">
+        <v>4999</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>700</v>
+      </c>
+      <c r="H128" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>701</v>
+      </c>
+      <c r="J128" t="s">
+        <v>696</v>
+      </c>
+      <c r="K128" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>703</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D129" s="6">
+        <v>119</v>
+      </c>
+      <c r="E129" s="7">
+        <v>500</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>705</v>
+      </c>
+      <c r="H129" s="1">
+        <v>-0.76</v>
+      </c>
+      <c r="I129" t="s">
+        <v>706</v>
+      </c>
+      <c r="J129" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>708</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1699</v>
+      </c>
+      <c r="E130" s="7">
+        <v>3998</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>710</v>
+      </c>
+      <c r="H130" s="1">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I130" t="s">
+        <v>711</v>
+      </c>
+      <c r="J130" t="s">
+        <v>81</v>
+      </c>
+      <c r="K130" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>713</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D131" s="6">
+        <v>931</v>
+      </c>
+      <c r="E131" s="7">
+        <v>1768</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>715</v>
+      </c>
+      <c r="H131" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="I131" t="s">
+        <v>716</v>
+      </c>
+      <c r="J131" t="s">
+        <v>640</v>
+      </c>
+      <c r="K131" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>718</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D132" s="6">
+        <v>261.25</v>
+      </c>
+      <c r="E132" s="7">
+        <v>275</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>244</v>
+      </c>
+      <c r="H132" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="I132" t="s">
+        <v>720</v>
+      </c>
+      <c r="J132" t="s">
+        <v>105</v>
+      </c>
+      <c r="K132" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>722</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D133" s="6">
+        <v>427.5</v>
+      </c>
+      <c r="E133" s="7">
+        <v>450</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>724</v>
+      </c>
+      <c r="H133" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="I133" t="s">
+        <v>725</v>
+      </c>
+      <c r="J133" t="s">
+        <v>105</v>
+      </c>
+      <c r="K133" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>727</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D134" s="6">
+        <v>350</v>
+      </c>
+      <c r="E134" s="7">
+        <v>360</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>729</v>
+      </c>
+      <c r="H134" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="I134" t="s">
+        <v>730</v>
+      </c>
+      <c r="J134" t="s">
+        <v>105</v>
+      </c>
+      <c r="K134" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>732</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D135" s="6">
+        <v>815</v>
+      </c>
+      <c r="E135" s="7">
+        <v>1519</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>734</v>
+      </c>
+      <c r="H135" s="1">
+        <v>-0.46</v>
+      </c>
+      <c r="I135" t="s">
+        <v>735</v>
+      </c>
+      <c r="J135" t="s">
+        <v>736</v>
+      </c>
+      <c r="K135" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
